--- a/ひな形/メッセージ定義書_03_発注(サンプル).xlsx
+++ b/ひな形/メッセージ定義書_03_発注(サンプル).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\セキデン\NIPSS\doc\30_詳細設計\ひな形\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msys\Documents\GitHub\test\ひな形\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="11130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="11130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>文言</t>
   </si>
@@ -437,11 +437,21 @@
     <t>Hand</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テスト変更 仲尾</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナカオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1484,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft"/>
@@ -1816,7 +1826,7 @@
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2389,10 +2399,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:K17"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2604,7 +2614,9 @@
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
